--- a/config_12.22/fish_3d_yutu_random_2.xlsx
+++ b/config_12.22/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +456,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +527,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +584,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1892,11 +1908,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1608566399</v>
+      <c r="G17" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1916,11 +1932,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1608566399</v>
+      <c r="G18" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1940,11 +1956,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1608566399</v>
+      <c r="G19" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1964,11 +1980,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1608566399</v>
+      <c r="G20" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>
@@ -2166,8 +2182,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
